--- a/Work Tracking/Time Sheet.xlsx
+++ b/Work Tracking/Time Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Summer-2019/scrabble/Work Hours/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Summer-2019/scrabble/Work Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13B92CAD-8ABA-3643-8404-BF22716EBAD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4F1ED72-FB8E-6C43-8DE3-A68348F7DDD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -36,9 +36,6 @@
     <t>OUT</t>
   </si>
   <si>
-    <t>Out</t>
-  </si>
-  <si>
     <t>MONDAY</t>
   </si>
   <si>
@@ -64,14 +61,31 @@
   </si>
   <si>
     <t>HOURS WORKED</t>
+  </si>
+  <si>
+    <t>TOTAL HOURS:</t>
+  </si>
+  <si>
+    <t>IN2</t>
+  </si>
+  <si>
+    <t>OUT2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -95,21 +109,366 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -120,6 +479,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{302CF30A-29A8-504D-BB11-E182EF979F5F}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:G15" xr:uid="{7909C85F-5AC1-1C41-A0DA-FEFDDD3083B4}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{AC16E83B-DFE2-A24F-BCA4-3256B6AA2E2E}" name="DAY" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F1A89DD6-FD0F-B749-9D77-151E6C6CBCFA}" name="DATE" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{20BB48E1-AA0D-3E47-AD77-73131EC31B2F}" name="IN" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{38AEDD78-D8C3-2748-81FB-F61358B2711C}" name="OUT" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E5EF4C67-3789-FD49-9CB0-10736833C336}" name="IN2" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6774D340-ED72-604A-9FD6-EB1645472754}" name="OUT2" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{7FF324A6-96B5-3D41-95AC-571DB53028EA}" name="HOURS WORKED" dataDxfId="1">
+      <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,316 +799,339 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B2" s="10">
         <v>43612</v>
       </c>
-      <c r="G2" s="2">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12">
         <f t="shared" ref="G2:G4" si="0">D2-C2+F2-E2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10">
         <v>43613</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="13">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="13">
         <v>0.54166666666666663</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="14">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="12">
         <f>D3-C3+F3-E3</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10">
         <v>43614</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G4" s="2">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12">
         <f t="shared" si="0"/>
         <v>0.29166666666666669</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10">
         <v>43615</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="12">
         <f>D5-C5+F5-E5</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10">
         <v>43616</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12">
         <f>D6-C6+F6-E6</f>
         <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10">
         <v>43617</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="12">
         <f>D7-C7+F7-E7</f>
         <v>0.25000000000000017</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10">
         <v>43618</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="14">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12">
         <f>D8-C8+F8-E8</f>
         <v>0.12500000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
         <v>43619</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="14">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="14">
         <v>0.875</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="12">
         <f>D9-C9+F9-E9</f>
         <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10">
         <v>43620</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G10" s="2">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12">
         <f>D10-C10+F10-E10</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
         <v>43621</v>
       </c>
-      <c r="G11" s="2">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12">
         <f>D11-C11+F11-E11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="A12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10">
         <v>43622</v>
       </c>
-      <c r="G12" s="2">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12">
         <f>D12-C12+F12-E12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10">
         <v>43623</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="14">
         <v>0.5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="14">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="14">
         <v>0.95833333333333337</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="12">
         <f>D13-C13+F13-E13</f>
         <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="A14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10">
         <v>43624</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="14">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G14" s="2">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12">
         <f>D14-C14+F14-E14</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="A15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="16">
         <v>43625</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G15" s="2">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19">
         <f>D15-C15+F15-E15</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="G16" s="4">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5">
         <f>SUM(G2:G15)</f>
         <v>2.8333333333333335</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
@@ -755,5 +1155,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Work Tracking/Time Sheet.xlsx
+++ b/Work Tracking/Time Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Summer-2019/scrabble/Work Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4F1ED72-FB8E-6C43-8DE3-A68348F7DDD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E058B8-2416-4D44-BF4E-28E97B71C7EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
   </bookViews>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -243,7 +243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -799,7 +798,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,12 +986,8 @@
       <c r="B9" s="10">
         <v>43619</v>
       </c>
-      <c r="C9" s="14">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="14">
         <v>0.83333333333333337</v>
       </c>
@@ -1001,7 +996,7 @@
       </c>
       <c r="G9" s="12">
         <f>D9-C9+F9-E9</f>
-        <v>0.33333333333333337</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1093,11 +1088,15 @@
       <c r="D14" s="14">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="14">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G14" s="12">
         <f>D14-C14+F14-E14</f>
-        <v>0.29166666666666669</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1113,11 +1112,15 @@
       <c r="D15" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19">
+      <c r="E15" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F15" s="17">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G15" s="18">
         <f>D15-C15+F15-E15</f>
-        <v>0.29166666666666669</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1130,7 +1133,7 @@
       </c>
       <c r="G17" s="5">
         <f>SUM(G2:G15)</f>
-        <v>2.8333333333333335</v>
+        <v>2.8750000000000004</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">

--- a/Work Tracking/Time Sheet.xlsx
+++ b/Work Tracking/Time Sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Summer-2019/scrabble/Work Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E058B8-2416-4D44-BF4E-28E97B71C7EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B0622-F283-DA45-BBCD-8D15F6FFC75C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" activeTab="1" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="5 27 - 6 9" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -71,11 +72,20 @@
   <si>
     <t>OUT2</t>
   </si>
+  <si>
+    <t>Week 1 total</t>
+  </si>
+  <si>
+    <t>Week 2 Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -224,31 +234,216 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -284,6 +479,63 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -373,29 +625,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -481,16 +710,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{302CF30A-29A8-504D-BB11-E182EF979F5F}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{302CF30A-29A8-504D-BB11-E182EF979F5F}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:G15" xr:uid="{7909C85F-5AC1-1C41-A0DA-FEFDDD3083B4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AC16E83B-DFE2-A24F-BCA4-3256B6AA2E2E}" name="DAY" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F1A89DD6-FD0F-B749-9D77-151E6C6CBCFA}" name="DATE" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{20BB48E1-AA0D-3E47-AD77-73131EC31B2F}" name="IN" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{38AEDD78-D8C3-2748-81FB-F61358B2711C}" name="OUT" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E5EF4C67-3789-FD49-9CB0-10736833C336}" name="IN2" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6774D340-ED72-604A-9FD6-EB1645472754}" name="OUT2" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{7FF324A6-96B5-3D41-95AC-571DB53028EA}" name="HOURS WORKED" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{AC16E83B-DFE2-A24F-BCA4-3256B6AA2E2E}" name="DAY" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{F1A89DD6-FD0F-B749-9D77-151E6C6CBCFA}" name="DATE" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{20BB48E1-AA0D-3E47-AD77-73131EC31B2F}" name="IN" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{38AEDD78-D8C3-2748-81FB-F61358B2711C}" name="OUT" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{E5EF4C67-3789-FD49-9CB0-10736833C336}" name="IN2" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{6774D340-ED72-604A-9FD6-EB1645472754}" name="OUT2" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{7FF324A6-96B5-3D41-95AC-571DB53028EA}" name="HOURS WORKED" dataDxfId="13">
+      <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB05A5D6-AF61-7E49-8E79-F49027947B23}" name="Table14" displayName="Table14" ref="A1:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G15" xr:uid="{BF5537AC-A15A-9049-B514-2CEBE112C09A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{05B6759B-1542-224D-950F-3B77DA0A7CFE}" name="DAY" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0BEDED94-9A33-0544-9F16-C24D35D05A28}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2ACB8B5C-38A0-1B45-96A1-0DF249C7A1AE}" name="IN" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{80B6B664-4D1B-A441-A00D-DA66AA640311}" name="OUT" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{88412330-D8E4-E84D-8E58-13DD26E5E2C9}" name="IN2" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5C6D956C-34D0-CE4B-9B02-376B54AF0868}" name="OUT2" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{659D80D8-1F98-1540-ADDF-C5872E7A9CAB}" name="HOURS WORKED" dataDxfId="0">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -795,46 +1042,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204C4C1B-940F-FA4A-86D1-F0228D11F4B2}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="J17" sqref="A1:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="18">
         <v>43612</v>
       </c>
       <c r="C2" s="11"/>
@@ -847,10 +1095,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="18">
         <v>43613</v>
       </c>
       <c r="C3" s="13">
@@ -871,10 +1119,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="18">
         <v>43614</v>
       </c>
       <c r="C4" s="14">
@@ -892,10 +1140,10 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="18">
         <v>43615</v>
       </c>
       <c r="C5" s="14">
@@ -916,10 +1164,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="18">
         <v>43616</v>
       </c>
       <c r="C6" s="14">
@@ -936,10 +1184,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="18">
         <v>43617</v>
       </c>
       <c r="C7" s="14">
@@ -958,12 +1206,19 @@
         <f>D7-C7+F7-E7</f>
         <v>0.25000000000000017</v>
       </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM(G2:G8)</f>
+        <v>1.291666666666667</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="18">
         <v>43618</v>
       </c>
       <c r="C8" s="14">
@@ -980,10 +1235,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="18">
         <v>43619</v>
       </c>
       <c r="C9" s="14"/>
@@ -1000,10 +1255,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="18">
         <v>43620</v>
       </c>
       <c r="C10" s="14">
@@ -1020,10 +1275,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="18">
         <v>43621</v>
       </c>
       <c r="C11" s="11"/>
@@ -1036,10 +1291,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="18">
         <v>43622</v>
       </c>
       <c r="C12" s="11"/>
@@ -1052,14 +1307,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="18">
         <v>43623</v>
       </c>
       <c r="C13" s="14">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D13" s="14">
         <v>0.70833333333333337</v>
@@ -1072,14 +1327,14 @@
       </c>
       <c r="G13" s="12">
         <f>D13-C13+F13-E13</f>
-        <v>0.33333333333333337</v>
+        <v>0.37500000000000011</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="18">
         <v>43624</v>
       </c>
       <c r="C14" s="14">
@@ -1103,37 +1358,44 @@
       <c r="A15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="19">
         <v>43625</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="16">
         <v>0.79166666666666663</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>0.95833333333333337</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <f>D15-C15+F15-E15</f>
         <v>0.45833333333333337</v>
       </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4">
+        <f>SUM(G9:G15)</f>
+        <v>1.6250000000000004</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <f>SUM(G2:G15)</f>
-        <v>2.8750000000000004</v>
+        <v>2.9166666666666674</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -1144,17 +1406,304 @@
       <c r="B19" s="1"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="G22" s="2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EB692-21B1-BA4D-91A7-4364896ECCDF}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18">
+        <v>43626</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2:G4" si="0">D2-C2+F2-E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18">
+        <v>43627</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12">
+        <f>D3-C3+F3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18">
+        <v>43628</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18">
+        <v>43629</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12">
+        <f>D5-C5+F5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43630</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12">
+        <f>D6-C6+F6-E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18">
+        <v>43631</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12">
+        <f>D7-C7+F7-E7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM(G2:G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="18">
+        <v>43632</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12">
+        <f>D8-C8+F8-E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>43633</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12">
+        <f>D9-C9+F9-E9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18">
+        <v>43634</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12">
+        <f>D10-C10+F10-E10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>43635</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12">
+        <f>D11-C11+F11-E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18">
+        <v>43636</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12">
+        <f>D12-C12+F12-E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="18">
+        <v>43637</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12">
+        <f>D13-C13+F13-E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="18">
+        <v>43638</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12">
+        <f>D14-C14+F14-E14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18">
+        <v>43639</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17">
+        <f>D15-C15+F15-E15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4">
+        <f>SUM(G9:G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6">
+        <f>SUM(G2:G15)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Work Tracking/Time Sheet.xlsx
+++ b/Work Tracking/Time Sheet.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Summer-2019/scrabble/Work Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2B0622-F283-DA45-BBCD-8D15F6FFC75C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B21713-08AD-434E-969A-A72327905683}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16600" activeTab="1" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="1" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
   </bookViews>
   <sheets>
     <sheet name="5 27 - 6 9" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="June 10th to 23rd" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -103,15 +105,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -230,11 +238,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -255,11 +383,36 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="33">
     <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -417,30 +570,30 @@
     <dxf>
       <border>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -479,6 +632,117 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -499,6 +763,56 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -647,6 +961,29 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -674,13 +1011,45 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -688,12 +1057,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -710,16 +1081,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{302CF30A-29A8-504D-BB11-E182EF979F5F}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{302CF30A-29A8-504D-BB11-E182EF979F5F}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:G15" xr:uid="{7909C85F-5AC1-1C41-A0DA-FEFDDD3083B4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AC16E83B-DFE2-A24F-BCA4-3256B6AA2E2E}" name="DAY" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F1A89DD6-FD0F-B749-9D77-151E6C6CBCFA}" name="DATE" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{20BB48E1-AA0D-3E47-AD77-73131EC31B2F}" name="IN" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{38AEDD78-D8C3-2748-81FB-F61358B2711C}" name="OUT" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{E5EF4C67-3789-FD49-9CB0-10736833C336}" name="IN2" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{6774D340-ED72-604A-9FD6-EB1645472754}" name="OUT2" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{7FF324A6-96B5-3D41-95AC-571DB53028EA}" name="HOURS WORKED" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{AC16E83B-DFE2-A24F-BCA4-3256B6AA2E2E}" name="DAY" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{F1A89DD6-FD0F-B749-9D77-151E6C6CBCFA}" name="DATE" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{20BB48E1-AA0D-3E47-AD77-73131EC31B2F}" name="IN" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{38AEDD78-D8C3-2748-81FB-F61358B2711C}" name="OUT" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{E5EF4C67-3789-FD49-9CB0-10736833C336}" name="IN2" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{6774D340-ED72-604A-9FD6-EB1645472754}" name="OUT2" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{7FF324A6-96B5-3D41-95AC-571DB53028EA}" name="HOURS WORKED" dataDxfId="22">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -728,16 +1099,34 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB05A5D6-AF61-7E49-8E79-F49027947B23}" name="Table14" displayName="Table14" ref="A1:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD9BBBAD-0E4B-FF47-BBC9-43199C6A56A5}" name="Table143" displayName="Table143" ref="A1:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G15" xr:uid="{BF5537AC-A15A-9049-B514-2CEBE112C09A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{05B6759B-1542-224D-950F-3B77DA0A7CFE}" name="DAY" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0BEDED94-9A33-0544-9F16-C24D35D05A28}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2ACB8B5C-38A0-1B45-96A1-0DF249C7A1AE}" name="IN" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{80B6B664-4D1B-A441-A00D-DA66AA640311}" name="OUT" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{88412330-D8E4-E84D-8E58-13DD26E5E2C9}" name="IN2" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5C6D956C-34D0-CE4B-9B02-376B54AF0868}" name="OUT2" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{659D80D8-1F98-1540-ADDF-C5872E7A9CAB}" name="HOURS WORKED" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{9D4C76CD-B24D-4848-BE2C-3A6F250D2AC4}" name="DAY" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{43D19B11-5450-AD40-AADD-65034905CB49}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{7EAFA47C-1F57-F44B-8C2E-DBAA8AA52FD1}" name="IN" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A2F973C1-C96E-CF41-A148-CA138690A9E5}" name="OUT" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6412FA9D-2708-594C-B091-60ABB5838C49}" name="IN2" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C7C70BB3-5490-754A-B576-09962ABEB833}" name="OUT2" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C71D6813-9EF5-414C-9561-50ACA8255127}" name="HOURS WORKED" dataDxfId="0">
+      <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB05A5D6-AF61-7E49-8E79-F49027947B23}" name="Table14" displayName="Table14" ref="A1:G15" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:G15" xr:uid="{BF5537AC-A15A-9049-B514-2CEBE112C09A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{05B6759B-1542-224D-950F-3B77DA0A7CFE}" name="DAY" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{0BEDED94-9A33-0544-9F16-C24D35D05A28}" name="DATE" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{2ACB8B5C-38A0-1B45-96A1-0DF249C7A1AE}" name="IN" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{80B6B664-4D1B-A441-A00D-DA66AA640311}" name="OUT" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{88412330-D8E4-E84D-8E58-13DD26E5E2C9}" name="IN2" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{5C6D956C-34D0-CE4B-9B02-376B54AF0868}" name="OUT2" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{659D80D8-1F98-1540-ADDF-C5872E7A9CAB}" name="HOURS WORKED" dataDxfId="11">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1045,7 +1434,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="J17" sqref="A1:J17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1548,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G5" s="12">
-        <f>D5-C5+F5-E5</f>
+        <f t="shared" ref="G5:G15" si="1">D5-C5+F5-E5</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
@@ -1179,7 +1568,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="12">
-        <f>D6-C6+F6-E6</f>
+        <f t="shared" si="1"/>
         <v>0.16666666666666669</v>
       </c>
     </row>
@@ -1203,7 +1592,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="G7" s="12">
-        <f>D7-C7+F7-E7</f>
+        <f t="shared" si="1"/>
         <v>0.25000000000000017</v>
       </c>
       <c r="I7" t="s">
@@ -1230,7 +1619,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="12">
-        <f>D8-C8+F8-E8</f>
+        <f t="shared" si="1"/>
         <v>0.12500000000000006</v>
       </c>
     </row>
@@ -1250,7 +1639,7 @@
         <v>0.875</v>
       </c>
       <c r="G9" s="12">
-        <f>D9-C9+F9-E9</f>
+        <f t="shared" si="1"/>
         <v>4.166666666666663E-2</v>
       </c>
     </row>
@@ -1270,7 +1659,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12">
-        <f>D10-C10+F10-E10</f>
+        <f t="shared" si="1"/>
         <v>0.29166666666666669</v>
       </c>
     </row>
@@ -1286,7 +1675,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12">
-        <f>D11-C11+F11-E11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1302,7 +1691,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12">
-        <f>D12-C12+F12-E12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1326,7 +1715,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="G13" s="12">
-        <f>D13-C13+F13-E13</f>
+        <f t="shared" si="1"/>
         <v>0.37500000000000011</v>
       </c>
     </row>
@@ -1350,7 +1739,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="G14" s="12">
-        <f>D14-C14+F14-E14</f>
+        <f t="shared" si="1"/>
         <v>0.45833333333333337</v>
       </c>
     </row>
@@ -1374,7 +1763,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="G15" s="17">
-        <f>D15-C15+F15-E15</f>
+        <f t="shared" si="1"/>
         <v>0.45833333333333337</v>
       </c>
       <c r="I15" t="s">
@@ -1415,10 +1804,1134 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D794CE9-4AF5-0940-8E0A-FEDB3E22E6BF}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18">
+        <v>43626</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2:G15" si="0">D2-C2+F2-E2</f>
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18">
+        <v>43627</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12">
+        <f>D3-C3+F3-E3</f>
+        <v>0.22916666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18">
+        <v>43628</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18">
+        <v>43629</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43630</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18">
+        <v>43631</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM(G2:G8)</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="18">
+        <v>43632</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>43633</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18">
+        <v>43634</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>43635</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18">
+        <v>43636</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="18">
+        <v>43637</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="18">
+        <v>43638</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18">
+        <v>43639</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4">
+        <f>SUM(G9:G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6">
+        <f>SUM(G2:G15)</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3BD46E-AA27-F24A-9EBB-9DA0F1C0D4BA}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView zoomScale="212" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22">
+        <v>1</v>
+      </c>
+      <c r="D1" s="22">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22">
+        <v>3</v>
+      </c>
+      <c r="F1" s="22">
+        <v>4</v>
+      </c>
+      <c r="G1" s="22">
+        <v>5</v>
+      </c>
+      <c r="H1" s="22">
+        <v>6</v>
+      </c>
+      <c r="I1" s="22">
+        <v>7</v>
+      </c>
+      <c r="J1" s="22">
+        <v>8</v>
+      </c>
+      <c r="K1" s="22">
+        <v>9</v>
+      </c>
+      <c r="L1" s="22">
+        <v>10</v>
+      </c>
+      <c r="M1" s="22">
+        <v>11</v>
+      </c>
+      <c r="N1" s="22">
+        <v>12</v>
+      </c>
+      <c r="O1" s="22">
+        <v>13</v>
+      </c>
+      <c r="P1" s="23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="24">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20">
+        <v>8</v>
+      </c>
+      <c r="K2" s="20">
+        <v>9</v>
+      </c>
+      <c r="L2" s="20">
+        <v>10</v>
+      </c>
+      <c r="M2" s="20">
+        <v>11</v>
+      </c>
+      <c r="N2" s="20">
+        <v>12</v>
+      </c>
+      <c r="O2" s="20">
+        <v>13</v>
+      </c>
+      <c r="P2" s="25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20">
+        <v>15</v>
+      </c>
+      <c r="C3" s="20">
+        <v>16</v>
+      </c>
+      <c r="D3" s="20">
+        <v>17</v>
+      </c>
+      <c r="E3" s="20">
+        <v>18</v>
+      </c>
+      <c r="F3" s="20">
+        <v>19</v>
+      </c>
+      <c r="G3" s="20">
+        <v>20</v>
+      </c>
+      <c r="H3" s="20">
+        <v>21</v>
+      </c>
+      <c r="I3" s="20">
+        <v>22</v>
+      </c>
+      <c r="J3" s="20">
+        <v>23</v>
+      </c>
+      <c r="K3" s="20">
+        <v>24</v>
+      </c>
+      <c r="L3" s="20">
+        <v>25</v>
+      </c>
+      <c r="M3" s="20">
+        <v>26</v>
+      </c>
+      <c r="N3" s="20">
+        <v>27</v>
+      </c>
+      <c r="O3" s="20">
+        <v>28</v>
+      </c>
+      <c r="P3" s="25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20">
+        <v>30</v>
+      </c>
+      <c r="C4" s="20">
+        <v>31</v>
+      </c>
+      <c r="D4" s="20">
+        <v>32</v>
+      </c>
+      <c r="E4" s="20">
+        <v>33</v>
+      </c>
+      <c r="F4" s="20">
+        <v>34</v>
+      </c>
+      <c r="G4" s="20">
+        <v>35</v>
+      </c>
+      <c r="H4" s="20">
+        <v>36</v>
+      </c>
+      <c r="I4" s="20">
+        <v>37</v>
+      </c>
+      <c r="J4" s="20">
+        <v>38</v>
+      </c>
+      <c r="K4" s="20">
+        <v>39</v>
+      </c>
+      <c r="L4" s="20">
+        <v>40</v>
+      </c>
+      <c r="M4" s="20">
+        <v>41</v>
+      </c>
+      <c r="N4" s="20">
+        <v>42</v>
+      </c>
+      <c r="O4" s="20">
+        <v>43</v>
+      </c>
+      <c r="P4" s="25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20">
+        <v>45</v>
+      </c>
+      <c r="C5" s="20">
+        <v>46</v>
+      </c>
+      <c r="D5" s="20">
+        <v>47</v>
+      </c>
+      <c r="E5" s="20">
+        <v>48</v>
+      </c>
+      <c r="F5" s="20">
+        <v>49</v>
+      </c>
+      <c r="G5" s="20">
+        <v>50</v>
+      </c>
+      <c r="H5" s="20">
+        <v>51</v>
+      </c>
+      <c r="I5" s="20">
+        <v>52</v>
+      </c>
+      <c r="J5" s="20">
+        <v>53</v>
+      </c>
+      <c r="K5" s="20">
+        <v>54</v>
+      </c>
+      <c r="L5" s="20">
+        <v>55</v>
+      </c>
+      <c r="M5" s="20">
+        <v>56</v>
+      </c>
+      <c r="N5" s="20">
+        <v>57</v>
+      </c>
+      <c r="O5" s="20">
+        <v>58</v>
+      </c>
+      <c r="P5" s="25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20">
+        <v>60</v>
+      </c>
+      <c r="C6" s="20">
+        <v>61</v>
+      </c>
+      <c r="D6" s="20">
+        <v>62</v>
+      </c>
+      <c r="E6" s="20">
+        <v>63</v>
+      </c>
+      <c r="F6" s="20">
+        <v>64</v>
+      </c>
+      <c r="G6" s="20">
+        <v>65</v>
+      </c>
+      <c r="H6" s="20">
+        <v>66</v>
+      </c>
+      <c r="I6" s="20">
+        <v>67</v>
+      </c>
+      <c r="J6" s="20">
+        <v>68</v>
+      </c>
+      <c r="K6" s="20">
+        <v>69</v>
+      </c>
+      <c r="L6" s="20">
+        <v>70</v>
+      </c>
+      <c r="M6" s="20">
+        <v>71</v>
+      </c>
+      <c r="N6" s="20">
+        <v>72</v>
+      </c>
+      <c r="O6" s="20">
+        <v>73</v>
+      </c>
+      <c r="P6" s="25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20">
+        <v>75</v>
+      </c>
+      <c r="C7" s="20">
+        <v>76</v>
+      </c>
+      <c r="D7" s="20">
+        <v>77</v>
+      </c>
+      <c r="E7" s="20">
+        <v>78</v>
+      </c>
+      <c r="F7" s="20">
+        <v>79</v>
+      </c>
+      <c r="G7" s="20">
+        <v>80</v>
+      </c>
+      <c r="H7" s="20">
+        <v>81</v>
+      </c>
+      <c r="I7" s="20">
+        <v>82</v>
+      </c>
+      <c r="J7" s="20">
+        <v>83</v>
+      </c>
+      <c r="K7" s="20">
+        <v>84</v>
+      </c>
+      <c r="L7" s="20">
+        <v>85</v>
+      </c>
+      <c r="M7" s="20">
+        <v>86</v>
+      </c>
+      <c r="N7" s="20">
+        <v>87</v>
+      </c>
+      <c r="O7" s="20">
+        <v>88</v>
+      </c>
+      <c r="P7" s="25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20">
+        <v>90</v>
+      </c>
+      <c r="C8" s="20">
+        <v>91</v>
+      </c>
+      <c r="D8" s="20">
+        <v>92</v>
+      </c>
+      <c r="E8" s="20">
+        <v>93</v>
+      </c>
+      <c r="F8" s="20">
+        <v>94</v>
+      </c>
+      <c r="G8" s="20">
+        <v>95</v>
+      </c>
+      <c r="H8" s="20">
+        <v>96</v>
+      </c>
+      <c r="I8" s="20">
+        <v>97</v>
+      </c>
+      <c r="J8" s="20">
+        <v>98</v>
+      </c>
+      <c r="K8" s="20">
+        <v>99</v>
+      </c>
+      <c r="L8" s="20">
+        <v>100</v>
+      </c>
+      <c r="M8" s="20">
+        <v>101</v>
+      </c>
+      <c r="N8" s="20">
+        <v>102</v>
+      </c>
+      <c r="O8" s="20">
+        <v>103</v>
+      </c>
+      <c r="P8" s="25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20">
+        <v>105</v>
+      </c>
+      <c r="C9" s="20">
+        <v>106</v>
+      </c>
+      <c r="D9" s="20">
+        <v>107</v>
+      </c>
+      <c r="E9" s="20">
+        <v>108</v>
+      </c>
+      <c r="F9" s="20">
+        <v>109</v>
+      </c>
+      <c r="G9" s="20">
+        <v>110</v>
+      </c>
+      <c r="H9" s="20">
+        <v>111</v>
+      </c>
+      <c r="I9" s="20">
+        <v>112</v>
+      </c>
+      <c r="J9" s="20">
+        <v>113</v>
+      </c>
+      <c r="K9" s="20">
+        <v>114</v>
+      </c>
+      <c r="L9" s="20">
+        <v>115</v>
+      </c>
+      <c r="M9" s="20">
+        <v>116</v>
+      </c>
+      <c r="N9" s="20">
+        <v>117</v>
+      </c>
+      <c r="O9" s="20">
+        <v>118</v>
+      </c>
+      <c r="P9" s="25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20">
+        <v>120</v>
+      </c>
+      <c r="C10" s="20">
+        <v>121</v>
+      </c>
+      <c r="D10" s="20">
+        <v>122</v>
+      </c>
+      <c r="E10" s="20">
+        <v>123</v>
+      </c>
+      <c r="F10" s="20">
+        <v>124</v>
+      </c>
+      <c r="G10" s="20">
+        <v>125</v>
+      </c>
+      <c r="H10" s="20">
+        <v>126</v>
+      </c>
+      <c r="I10" s="20">
+        <v>127</v>
+      </c>
+      <c r="J10" s="20">
+        <v>128</v>
+      </c>
+      <c r="K10" s="20">
+        <v>129</v>
+      </c>
+      <c r="L10" s="20">
+        <v>130</v>
+      </c>
+      <c r="M10" s="20">
+        <v>131</v>
+      </c>
+      <c r="N10" s="20">
+        <v>132</v>
+      </c>
+      <c r="O10" s="20">
+        <v>133</v>
+      </c>
+      <c r="P10" s="25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20">
+        <v>135</v>
+      </c>
+      <c r="C11" s="20">
+        <v>136</v>
+      </c>
+      <c r="D11" s="20">
+        <v>137</v>
+      </c>
+      <c r="E11" s="20">
+        <v>138</v>
+      </c>
+      <c r="F11" s="20">
+        <v>139</v>
+      </c>
+      <c r="G11" s="20">
+        <v>140</v>
+      </c>
+      <c r="H11" s="20">
+        <v>141</v>
+      </c>
+      <c r="I11" s="20">
+        <v>142</v>
+      </c>
+      <c r="J11" s="20">
+        <v>143</v>
+      </c>
+      <c r="K11" s="20">
+        <v>144</v>
+      </c>
+      <c r="L11" s="20">
+        <v>145</v>
+      </c>
+      <c r="M11" s="20">
+        <v>146</v>
+      </c>
+      <c r="N11" s="20">
+        <v>147</v>
+      </c>
+      <c r="O11" s="20">
+        <v>148</v>
+      </c>
+      <c r="P11" s="25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20">
+        <v>150</v>
+      </c>
+      <c r="C12" s="20">
+        <v>151</v>
+      </c>
+      <c r="D12" s="20">
+        <v>152</v>
+      </c>
+      <c r="E12" s="20">
+        <v>153</v>
+      </c>
+      <c r="F12" s="20">
+        <v>154</v>
+      </c>
+      <c r="G12" s="20">
+        <v>155</v>
+      </c>
+      <c r="H12" s="20">
+        <v>156</v>
+      </c>
+      <c r="I12" s="20">
+        <v>157</v>
+      </c>
+      <c r="J12" s="20">
+        <v>158</v>
+      </c>
+      <c r="K12" s="20">
+        <v>159</v>
+      </c>
+      <c r="L12" s="20">
+        <v>160</v>
+      </c>
+      <c r="M12" s="20">
+        <v>161</v>
+      </c>
+      <c r="N12" s="20">
+        <v>162</v>
+      </c>
+      <c r="O12" s="20">
+        <v>163</v>
+      </c>
+      <c r="P12" s="25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20">
+        <v>165</v>
+      </c>
+      <c r="C13" s="20">
+        <v>166</v>
+      </c>
+      <c r="D13" s="20">
+        <v>167</v>
+      </c>
+      <c r="E13" s="20">
+        <v>168</v>
+      </c>
+      <c r="F13" s="20">
+        <v>169</v>
+      </c>
+      <c r="G13" s="20">
+        <v>170</v>
+      </c>
+      <c r="H13" s="20">
+        <v>171</v>
+      </c>
+      <c r="I13" s="20">
+        <v>172</v>
+      </c>
+      <c r="J13" s="20">
+        <v>173</v>
+      </c>
+      <c r="K13" s="20">
+        <v>174</v>
+      </c>
+      <c r="L13" s="20">
+        <v>175</v>
+      </c>
+      <c r="M13" s="20">
+        <v>176</v>
+      </c>
+      <c r="N13" s="20">
+        <v>177</v>
+      </c>
+      <c r="O13" s="20">
+        <v>178</v>
+      </c>
+      <c r="P13" s="25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20">
+        <v>180</v>
+      </c>
+      <c r="C14" s="20">
+        <v>181</v>
+      </c>
+      <c r="D14" s="20">
+        <v>182</v>
+      </c>
+      <c r="E14" s="20">
+        <v>183</v>
+      </c>
+      <c r="F14" s="20">
+        <v>184</v>
+      </c>
+      <c r="G14" s="20">
+        <v>185</v>
+      </c>
+      <c r="H14" s="20">
+        <v>186</v>
+      </c>
+      <c r="I14" s="20">
+        <v>187</v>
+      </c>
+      <c r="J14" s="20">
+        <v>188</v>
+      </c>
+      <c r="K14" s="20">
+        <v>189</v>
+      </c>
+      <c r="L14" s="20">
+        <v>190</v>
+      </c>
+      <c r="M14" s="20">
+        <v>191</v>
+      </c>
+      <c r="N14" s="20">
+        <v>192</v>
+      </c>
+      <c r="O14" s="20">
+        <v>193</v>
+      </c>
+      <c r="P14" s="25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20">
+        <v>195</v>
+      </c>
+      <c r="C15" s="20">
+        <v>196</v>
+      </c>
+      <c r="D15" s="20">
+        <v>197</v>
+      </c>
+      <c r="E15" s="20">
+        <v>198</v>
+      </c>
+      <c r="F15" s="20">
+        <v>199</v>
+      </c>
+      <c r="G15" s="20">
+        <v>200</v>
+      </c>
+      <c r="H15" s="20">
+        <v>201</v>
+      </c>
+      <c r="I15" s="20">
+        <v>202</v>
+      </c>
+      <c r="J15" s="20">
+        <v>203</v>
+      </c>
+      <c r="K15" s="20">
+        <v>204</v>
+      </c>
+      <c r="L15" s="20">
+        <v>205</v>
+      </c>
+      <c r="M15" s="20">
+        <v>206</v>
+      </c>
+      <c r="N15" s="20">
+        <v>207</v>
+      </c>
+      <c r="O15" s="20">
+        <v>208</v>
+      </c>
+      <c r="P15" s="25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
+        <v>14</v>
+      </c>
+      <c r="B16" s="27">
+        <v>210</v>
+      </c>
+      <c r="C16" s="27">
+        <v>211</v>
+      </c>
+      <c r="D16" s="27">
+        <v>212</v>
+      </c>
+      <c r="E16" s="27">
+        <v>213</v>
+      </c>
+      <c r="F16" s="27">
+        <v>214</v>
+      </c>
+      <c r="G16" s="27">
+        <v>215</v>
+      </c>
+      <c r="H16" s="27">
+        <v>216</v>
+      </c>
+      <c r="I16" s="27">
+        <v>217</v>
+      </c>
+      <c r="J16" s="27">
+        <v>218</v>
+      </c>
+      <c r="K16" s="27">
+        <v>219</v>
+      </c>
+      <c r="L16" s="27">
+        <v>220</v>
+      </c>
+      <c r="M16" s="27">
+        <v>221</v>
+      </c>
+      <c r="N16" s="27">
+        <v>222</v>
+      </c>
+      <c r="O16" s="27">
+        <v>223</v>
+      </c>
+      <c r="P16" s="28">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EB692-21B1-BA4D-91A7-4364896ECCDF}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1514,7 +3027,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="12">
-        <f>D5-C5+F5-E5</f>
+        <f t="shared" ref="G5:G15" si="1">D5-C5+F5-E5</f>
         <v>0</v>
       </c>
     </row>
@@ -1530,7 +3043,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="12">
-        <f>D6-C6+F6-E6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1546,7 +3059,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="12">
-        <f>D7-C7+F7-E7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" t="s">
@@ -1569,7 +3082,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="12">
-        <f>D8-C8+F8-E8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1585,7 +3098,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="12">
-        <f>D9-C9+F9-E9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1601,7 +3114,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12">
-        <f>D10-C10+F10-E10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1617,7 +3130,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12">
-        <f>D11-C11+F11-E11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1633,7 +3146,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12">
-        <f>D12-C12+F12-E12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1649,7 +3162,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="12">
-        <f>D13-C13+F13-E13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1665,7 +3178,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="12">
-        <f>D14-C14+F14-E14</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1681,7 +3194,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17">
-        <f>D15-C15+F15-E15</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" t="s">
@@ -1706,6 +3219,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Work Tracking/Time Sheet.xlsx
+++ b/Work Tracking/Time Sheet.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Summer-2019/scrabble/Work Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B21713-08AD-434E-969A-A72327905683}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51385F2C-CC48-214C-B30B-5F002CF5DF71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="1" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
   </bookViews>
   <sheets>
     <sheet name="5 27 - 6 9" sheetId="1" r:id="rId1"/>
     <sheet name="June 10th to 23rd" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -85,8 +84,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,21 +105,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -238,131 +232,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -383,133 +257,112 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
+      <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1104,11 +957,11 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{9D4C76CD-B24D-4848-BE2C-3A6F250D2AC4}" name="DAY" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{43D19B11-5450-AD40-AADD-65034905CB49}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{7EAFA47C-1F57-F44B-8C2E-DBAA8AA52FD1}" name="IN" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A2F973C1-C96E-CF41-A148-CA138690A9E5}" name="OUT" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{6412FA9D-2708-594C-B091-60ABB5838C49}" name="IN2" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C7C70BB3-5490-754A-B576-09962ABEB833}" name="OUT2" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{C71D6813-9EF5-414C-9561-50ACA8255127}" name="HOURS WORKED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{7EAFA47C-1F57-F44B-8C2E-DBAA8AA52FD1}" name="IN" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{A2F973C1-C96E-CF41-A148-CA138690A9E5}" name="OUT" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{6412FA9D-2708-594C-B091-60ABB5838C49}" name="IN2" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{C7C70BB3-5490-754A-B576-09962ABEB833}" name="OUT2" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{C71D6813-9EF5-414C-9561-50ACA8255127}" name="HOURS WORKED" dataDxfId="4">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1808,7 +1661,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1849,14 +1702,14 @@
       <c r="B2" s="18">
         <v>43626</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="20">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="20">
         <v>0.625</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="12">
         <f t="shared" ref="G2:G15" si="0">D2-C2+F2-E2</f>
         <v>0.20833333333333331</v>
@@ -1869,14 +1722,14 @@
       <c r="B3" s="18">
         <v>43627</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="20">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="12">
         <f>D3-C3+F3-E3</f>
         <v>0.22916666666666669</v>
@@ -1889,13 +1742,17 @@
       <c r="B4" s="18">
         <v>43628</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="20">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -1906,13 +1763,17 @@
       <c r="B5" s="18">
         <v>43629</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="20">
+        <v>0.875</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1922,13 +1783,17 @@
       <c r="B6" s="18">
         <v>43630</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="C6" s="20">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1938,10 +1803,10 @@
       <c r="B7" s="18">
         <v>43631</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1951,7 +1816,7 @@
       </c>
       <c r="J7" s="4">
         <f>SUM(G2:G8)</f>
-        <v>0.4375</v>
+        <v>1.0625</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1961,10 +1826,10 @@
       <c r="B8" s="18">
         <v>43632</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1977,10 +1842,10 @@
       <c r="B9" s="18">
         <v>43633</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1993,10 +1858,10 @@
       <c r="B10" s="18">
         <v>43634</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2009,10 +1874,10 @@
       <c r="B11" s="18">
         <v>43635</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2025,10 +1890,10 @@
       <c r="B12" s="18">
         <v>43636</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2041,10 +1906,10 @@
       <c r="B13" s="18">
         <v>43637</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2057,10 +1922,10 @@
       <c r="B14" s="18">
         <v>43638</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2073,10 +1938,10 @@
       <c r="B15" s="18">
         <v>43639</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
       <c r="G15" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2099,7 +1964,7 @@
       </c>
       <c r="G17" s="6">
         <f>SUM(G2:G15)</f>
-        <v>0.4375</v>
+        <v>1.0625</v>
       </c>
     </row>
   </sheetData>
@@ -2111,823 +1976,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3BD46E-AA27-F24A-9EBB-9DA0F1C0D4BA}">
-  <dimension ref="A1:P16"/>
-  <sheetViews>
-    <sheetView zoomScale="212" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22">
-        <v>2</v>
-      </c>
-      <c r="E1" s="22">
-        <v>3</v>
-      </c>
-      <c r="F1" s="22">
-        <v>4</v>
-      </c>
-      <c r="G1" s="22">
-        <v>5</v>
-      </c>
-      <c r="H1" s="22">
-        <v>6</v>
-      </c>
-      <c r="I1" s="22">
-        <v>7</v>
-      </c>
-      <c r="J1" s="22">
-        <v>8</v>
-      </c>
-      <c r="K1" s="22">
-        <v>9</v>
-      </c>
-      <c r="L1" s="22">
-        <v>10</v>
-      </c>
-      <c r="M1" s="22">
-        <v>11</v>
-      </c>
-      <c r="N1" s="22">
-        <v>12</v>
-      </c>
-      <c r="O1" s="22">
-        <v>13</v>
-      </c>
-      <c r="P1" s="23">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="24">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20">
-        <v>1</v>
-      </c>
-      <c r="D2" s="20">
-        <v>2</v>
-      </c>
-      <c r="E2" s="20">
-        <v>3</v>
-      </c>
-      <c r="F2" s="20">
-        <v>4</v>
-      </c>
-      <c r="G2" s="20">
-        <v>5</v>
-      </c>
-      <c r="H2" s="20">
-        <v>6</v>
-      </c>
-      <c r="I2" s="20">
-        <v>7</v>
-      </c>
-      <c r="J2" s="20">
-        <v>8</v>
-      </c>
-      <c r="K2" s="20">
-        <v>9</v>
-      </c>
-      <c r="L2" s="20">
-        <v>10</v>
-      </c>
-      <c r="M2" s="20">
-        <v>11</v>
-      </c>
-      <c r="N2" s="20">
-        <v>12</v>
-      </c>
-      <c r="O2" s="20">
-        <v>13</v>
-      </c>
-      <c r="P2" s="25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="24">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20">
-        <v>15</v>
-      </c>
-      <c r="C3" s="20">
-        <v>16</v>
-      </c>
-      <c r="D3" s="20">
-        <v>17</v>
-      </c>
-      <c r="E3" s="20">
-        <v>18</v>
-      </c>
-      <c r="F3" s="20">
-        <v>19</v>
-      </c>
-      <c r="G3" s="20">
-        <v>20</v>
-      </c>
-      <c r="H3" s="20">
-        <v>21</v>
-      </c>
-      <c r="I3" s="20">
-        <v>22</v>
-      </c>
-      <c r="J3" s="20">
-        <v>23</v>
-      </c>
-      <c r="K3" s="20">
-        <v>24</v>
-      </c>
-      <c r="L3" s="20">
-        <v>25</v>
-      </c>
-      <c r="M3" s="20">
-        <v>26</v>
-      </c>
-      <c r="N3" s="20">
-        <v>27</v>
-      </c>
-      <c r="O3" s="20">
-        <v>28</v>
-      </c>
-      <c r="P3" s="25">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="24">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20">
-        <v>30</v>
-      </c>
-      <c r="C4" s="20">
-        <v>31</v>
-      </c>
-      <c r="D4" s="20">
-        <v>32</v>
-      </c>
-      <c r="E4" s="20">
-        <v>33</v>
-      </c>
-      <c r="F4" s="20">
-        <v>34</v>
-      </c>
-      <c r="G4" s="20">
-        <v>35</v>
-      </c>
-      <c r="H4" s="20">
-        <v>36</v>
-      </c>
-      <c r="I4" s="20">
-        <v>37</v>
-      </c>
-      <c r="J4" s="20">
-        <v>38</v>
-      </c>
-      <c r="K4" s="20">
-        <v>39</v>
-      </c>
-      <c r="L4" s="20">
-        <v>40</v>
-      </c>
-      <c r="M4" s="20">
-        <v>41</v>
-      </c>
-      <c r="N4" s="20">
-        <v>42</v>
-      </c>
-      <c r="O4" s="20">
-        <v>43</v>
-      </c>
-      <c r="P4" s="25">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="24">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20">
-        <v>45</v>
-      </c>
-      <c r="C5" s="20">
-        <v>46</v>
-      </c>
-      <c r="D5" s="20">
-        <v>47</v>
-      </c>
-      <c r="E5" s="20">
-        <v>48</v>
-      </c>
-      <c r="F5" s="20">
-        <v>49</v>
-      </c>
-      <c r="G5" s="20">
-        <v>50</v>
-      </c>
-      <c r="H5" s="20">
-        <v>51</v>
-      </c>
-      <c r="I5" s="20">
-        <v>52</v>
-      </c>
-      <c r="J5" s="20">
-        <v>53</v>
-      </c>
-      <c r="K5" s="20">
-        <v>54</v>
-      </c>
-      <c r="L5" s="20">
-        <v>55</v>
-      </c>
-      <c r="M5" s="20">
-        <v>56</v>
-      </c>
-      <c r="N5" s="20">
-        <v>57</v>
-      </c>
-      <c r="O5" s="20">
-        <v>58</v>
-      </c>
-      <c r="P5" s="25">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="24">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20">
-        <v>60</v>
-      </c>
-      <c r="C6" s="20">
-        <v>61</v>
-      </c>
-      <c r="D6" s="20">
-        <v>62</v>
-      </c>
-      <c r="E6" s="20">
-        <v>63</v>
-      </c>
-      <c r="F6" s="20">
-        <v>64</v>
-      </c>
-      <c r="G6" s="20">
-        <v>65</v>
-      </c>
-      <c r="H6" s="20">
-        <v>66</v>
-      </c>
-      <c r="I6" s="20">
-        <v>67</v>
-      </c>
-      <c r="J6" s="20">
-        <v>68</v>
-      </c>
-      <c r="K6" s="20">
-        <v>69</v>
-      </c>
-      <c r="L6" s="20">
-        <v>70</v>
-      </c>
-      <c r="M6" s="20">
-        <v>71</v>
-      </c>
-      <c r="N6" s="20">
-        <v>72</v>
-      </c>
-      <c r="O6" s="20">
-        <v>73</v>
-      </c>
-      <c r="P6" s="25">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="24">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20">
-        <v>75</v>
-      </c>
-      <c r="C7" s="20">
-        <v>76</v>
-      </c>
-      <c r="D7" s="20">
-        <v>77</v>
-      </c>
-      <c r="E7" s="20">
-        <v>78</v>
-      </c>
-      <c r="F7" s="20">
-        <v>79</v>
-      </c>
-      <c r="G7" s="20">
-        <v>80</v>
-      </c>
-      <c r="H7" s="20">
-        <v>81</v>
-      </c>
-      <c r="I7" s="20">
-        <v>82</v>
-      </c>
-      <c r="J7" s="20">
-        <v>83</v>
-      </c>
-      <c r="K7" s="20">
-        <v>84</v>
-      </c>
-      <c r="L7" s="20">
-        <v>85</v>
-      </c>
-      <c r="M7" s="20">
-        <v>86</v>
-      </c>
-      <c r="N7" s="20">
-        <v>87</v>
-      </c>
-      <c r="O7" s="20">
-        <v>88</v>
-      </c>
-      <c r="P7" s="25">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
-        <v>6</v>
-      </c>
-      <c r="B8" s="20">
-        <v>90</v>
-      </c>
-      <c r="C8" s="20">
-        <v>91</v>
-      </c>
-      <c r="D8" s="20">
-        <v>92</v>
-      </c>
-      <c r="E8" s="20">
-        <v>93</v>
-      </c>
-      <c r="F8" s="20">
-        <v>94</v>
-      </c>
-      <c r="G8" s="20">
-        <v>95</v>
-      </c>
-      <c r="H8" s="20">
-        <v>96</v>
-      </c>
-      <c r="I8" s="20">
-        <v>97</v>
-      </c>
-      <c r="J8" s="20">
-        <v>98</v>
-      </c>
-      <c r="K8" s="20">
-        <v>99</v>
-      </c>
-      <c r="L8" s="20">
-        <v>100</v>
-      </c>
-      <c r="M8" s="20">
-        <v>101</v>
-      </c>
-      <c r="N8" s="20">
-        <v>102</v>
-      </c>
-      <c r="O8" s="20">
-        <v>103</v>
-      </c>
-      <c r="P8" s="25">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="24">
-        <v>7</v>
-      </c>
-      <c r="B9" s="20">
-        <v>105</v>
-      </c>
-      <c r="C9" s="20">
-        <v>106</v>
-      </c>
-      <c r="D9" s="20">
-        <v>107</v>
-      </c>
-      <c r="E9" s="20">
-        <v>108</v>
-      </c>
-      <c r="F9" s="20">
-        <v>109</v>
-      </c>
-      <c r="G9" s="20">
-        <v>110</v>
-      </c>
-      <c r="H9" s="20">
-        <v>111</v>
-      </c>
-      <c r="I9" s="20">
-        <v>112</v>
-      </c>
-      <c r="J9" s="20">
-        <v>113</v>
-      </c>
-      <c r="K9" s="20">
-        <v>114</v>
-      </c>
-      <c r="L9" s="20">
-        <v>115</v>
-      </c>
-      <c r="M9" s="20">
-        <v>116</v>
-      </c>
-      <c r="N9" s="20">
-        <v>117</v>
-      </c>
-      <c r="O9" s="20">
-        <v>118</v>
-      </c>
-      <c r="P9" s="25">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="24">
-        <v>8</v>
-      </c>
-      <c r="B10" s="20">
-        <v>120</v>
-      </c>
-      <c r="C10" s="20">
-        <v>121</v>
-      </c>
-      <c r="D10" s="20">
-        <v>122</v>
-      </c>
-      <c r="E10" s="20">
-        <v>123</v>
-      </c>
-      <c r="F10" s="20">
-        <v>124</v>
-      </c>
-      <c r="G10" s="20">
-        <v>125</v>
-      </c>
-      <c r="H10" s="20">
-        <v>126</v>
-      </c>
-      <c r="I10" s="20">
-        <v>127</v>
-      </c>
-      <c r="J10" s="20">
-        <v>128</v>
-      </c>
-      <c r="K10" s="20">
-        <v>129</v>
-      </c>
-      <c r="L10" s="20">
-        <v>130</v>
-      </c>
-      <c r="M10" s="20">
-        <v>131</v>
-      </c>
-      <c r="N10" s="20">
-        <v>132</v>
-      </c>
-      <c r="O10" s="20">
-        <v>133</v>
-      </c>
-      <c r="P10" s="25">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="24">
-        <v>9</v>
-      </c>
-      <c r="B11" s="20">
-        <v>135</v>
-      </c>
-      <c r="C11" s="20">
-        <v>136</v>
-      </c>
-      <c r="D11" s="20">
-        <v>137</v>
-      </c>
-      <c r="E11" s="20">
-        <v>138</v>
-      </c>
-      <c r="F11" s="20">
-        <v>139</v>
-      </c>
-      <c r="G11" s="20">
-        <v>140</v>
-      </c>
-      <c r="H11" s="20">
-        <v>141</v>
-      </c>
-      <c r="I11" s="20">
-        <v>142</v>
-      </c>
-      <c r="J11" s="20">
-        <v>143</v>
-      </c>
-      <c r="K11" s="20">
-        <v>144</v>
-      </c>
-      <c r="L11" s="20">
-        <v>145</v>
-      </c>
-      <c r="M11" s="20">
-        <v>146</v>
-      </c>
-      <c r="N11" s="20">
-        <v>147</v>
-      </c>
-      <c r="O11" s="20">
-        <v>148</v>
-      </c>
-      <c r="P11" s="25">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
-        <v>10</v>
-      </c>
-      <c r="B12" s="20">
-        <v>150</v>
-      </c>
-      <c r="C12" s="20">
-        <v>151</v>
-      </c>
-      <c r="D12" s="20">
-        <v>152</v>
-      </c>
-      <c r="E12" s="20">
-        <v>153</v>
-      </c>
-      <c r="F12" s="20">
-        <v>154</v>
-      </c>
-      <c r="G12" s="20">
-        <v>155</v>
-      </c>
-      <c r="H12" s="20">
-        <v>156</v>
-      </c>
-      <c r="I12" s="20">
-        <v>157</v>
-      </c>
-      <c r="J12" s="20">
-        <v>158</v>
-      </c>
-      <c r="K12" s="20">
-        <v>159</v>
-      </c>
-      <c r="L12" s="20">
-        <v>160</v>
-      </c>
-      <c r="M12" s="20">
-        <v>161</v>
-      </c>
-      <c r="N12" s="20">
-        <v>162</v>
-      </c>
-      <c r="O12" s="20">
-        <v>163</v>
-      </c>
-      <c r="P12" s="25">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="24">
-        <v>11</v>
-      </c>
-      <c r="B13" s="20">
-        <v>165</v>
-      </c>
-      <c r="C13" s="20">
-        <v>166</v>
-      </c>
-      <c r="D13" s="20">
-        <v>167</v>
-      </c>
-      <c r="E13" s="20">
-        <v>168</v>
-      </c>
-      <c r="F13" s="20">
-        <v>169</v>
-      </c>
-      <c r="G13" s="20">
-        <v>170</v>
-      </c>
-      <c r="H13" s="20">
-        <v>171</v>
-      </c>
-      <c r="I13" s="20">
-        <v>172</v>
-      </c>
-      <c r="J13" s="20">
-        <v>173</v>
-      </c>
-      <c r="K13" s="20">
-        <v>174</v>
-      </c>
-      <c r="L13" s="20">
-        <v>175</v>
-      </c>
-      <c r="M13" s="20">
-        <v>176</v>
-      </c>
-      <c r="N13" s="20">
-        <v>177</v>
-      </c>
-      <c r="O13" s="20">
-        <v>178</v>
-      </c>
-      <c r="P13" s="25">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
-        <v>12</v>
-      </c>
-      <c r="B14" s="20">
-        <v>180</v>
-      </c>
-      <c r="C14" s="20">
-        <v>181</v>
-      </c>
-      <c r="D14" s="20">
-        <v>182</v>
-      </c>
-      <c r="E14" s="20">
-        <v>183</v>
-      </c>
-      <c r="F14" s="20">
-        <v>184</v>
-      </c>
-      <c r="G14" s="20">
-        <v>185</v>
-      </c>
-      <c r="H14" s="20">
-        <v>186</v>
-      </c>
-      <c r="I14" s="20">
-        <v>187</v>
-      </c>
-      <c r="J14" s="20">
-        <v>188</v>
-      </c>
-      <c r="K14" s="20">
-        <v>189</v>
-      </c>
-      <c r="L14" s="20">
-        <v>190</v>
-      </c>
-      <c r="M14" s="20">
-        <v>191</v>
-      </c>
-      <c r="N14" s="20">
-        <v>192</v>
-      </c>
-      <c r="O14" s="20">
-        <v>193</v>
-      </c>
-      <c r="P14" s="25">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="24">
-        <v>13</v>
-      </c>
-      <c r="B15" s="20">
-        <v>195</v>
-      </c>
-      <c r="C15" s="20">
-        <v>196</v>
-      </c>
-      <c r="D15" s="20">
-        <v>197</v>
-      </c>
-      <c r="E15" s="20">
-        <v>198</v>
-      </c>
-      <c r="F15" s="20">
-        <v>199</v>
-      </c>
-      <c r="G15" s="20">
-        <v>200</v>
-      </c>
-      <c r="H15" s="20">
-        <v>201</v>
-      </c>
-      <c r="I15" s="20">
-        <v>202</v>
-      </c>
-      <c r="J15" s="20">
-        <v>203</v>
-      </c>
-      <c r="K15" s="20">
-        <v>204</v>
-      </c>
-      <c r="L15" s="20">
-        <v>205</v>
-      </c>
-      <c r="M15" s="20">
-        <v>206</v>
-      </c>
-      <c r="N15" s="20">
-        <v>207</v>
-      </c>
-      <c r="O15" s="20">
-        <v>208</v>
-      </c>
-      <c r="P15" s="25">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>14</v>
-      </c>
-      <c r="B16" s="27">
-        <v>210</v>
-      </c>
-      <c r="C16" s="27">
-        <v>211</v>
-      </c>
-      <c r="D16" s="27">
-        <v>212</v>
-      </c>
-      <c r="E16" s="27">
-        <v>213</v>
-      </c>
-      <c r="F16" s="27">
-        <v>214</v>
-      </c>
-      <c r="G16" s="27">
-        <v>215</v>
-      </c>
-      <c r="H16" s="27">
-        <v>216</v>
-      </c>
-      <c r="I16" s="27">
-        <v>217</v>
-      </c>
-      <c r="J16" s="27">
-        <v>218</v>
-      </c>
-      <c r="K16" s="27">
-        <v>219</v>
-      </c>
-      <c r="L16" s="27">
-        <v>220</v>
-      </c>
-      <c r="M16" s="27">
-        <v>221</v>
-      </c>
-      <c r="N16" s="27">
-        <v>222</v>
-      </c>
-      <c r="O16" s="27">
-        <v>223</v>
-      </c>
-      <c r="P16" s="28">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EB692-21B1-BA4D-91A7-4364896ECCDF}">
   <dimension ref="A1:J17"/>
   <sheetViews>

--- a/Work Tracking/Time Sheet.xlsx
+++ b/Work Tracking/Time Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Summer-2019/scrabble/Work Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51385F2C-CC48-214C-B30B-5F002CF5DF71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF613F53-DCBA-0441-859B-7F5C56D169F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="1" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
   </bookViews>
@@ -86,7 +86,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -257,15 +257,35 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -288,7 +308,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -311,7 +330,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -334,7 +353,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -357,12 +376,14 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -378,7 +399,33 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -392,61 +439,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -506,6 +504,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -528,6 +527,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -550,7 +550,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -573,7 +573,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -641,30 +641,30 @@
     <dxf>
       <border>
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -952,16 +952,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD9BBBAD-0E4B-FF47-BBC9-43199C6A56A5}" name="Table143" displayName="Table143" ref="A1:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD9BBBAD-0E4B-FF47-BBC9-43199C6A56A5}" name="Table143" displayName="Table143" ref="A1:G15" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A1:G15" xr:uid="{BF5537AC-A15A-9049-B514-2CEBE112C09A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9D4C76CD-B24D-4848-BE2C-3A6F250D2AC4}" name="DAY" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{43D19B11-5450-AD40-AADD-65034905CB49}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{7EAFA47C-1F57-F44B-8C2E-DBAA8AA52FD1}" name="IN" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{A2F973C1-C96E-CF41-A148-CA138690A9E5}" name="OUT" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{6412FA9D-2708-594C-B091-60ABB5838C49}" name="IN2" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{C7C70BB3-5490-754A-B576-09962ABEB833}" name="OUT2" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{C71D6813-9EF5-414C-9561-50ACA8255127}" name="HOURS WORKED" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{9D4C76CD-B24D-4848-BE2C-3A6F250D2AC4}" name="DAY" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{43D19B11-5450-AD40-AADD-65034905CB49}" name="DATE" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{7EAFA47C-1F57-F44B-8C2E-DBAA8AA52FD1}" name="IN" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{A2F973C1-C96E-CF41-A148-CA138690A9E5}" name="OUT" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{6412FA9D-2708-594C-B091-60ABB5838C49}" name="IN2" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{C7C70BB3-5490-754A-B576-09962ABEB833}" name="OUT2" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{C71D6813-9EF5-414C-9561-50ACA8255127}" name="HOURS WORKED" dataDxfId="11">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -970,16 +970,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB05A5D6-AF61-7E49-8E79-F49027947B23}" name="Table14" displayName="Table14" ref="A1:G15" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB05A5D6-AF61-7E49-8E79-F49027947B23}" name="Table14" displayName="Table14" ref="A1:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G15" xr:uid="{BF5537AC-A15A-9049-B514-2CEBE112C09A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{05B6759B-1542-224D-950F-3B77DA0A7CFE}" name="DAY" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{0BEDED94-9A33-0544-9F16-C24D35D05A28}" name="DATE" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2ACB8B5C-38A0-1B45-96A1-0DF249C7A1AE}" name="IN" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{80B6B664-4D1B-A441-A00D-DA66AA640311}" name="OUT" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{88412330-D8E4-E84D-8E58-13DD26E5E2C9}" name="IN2" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{5C6D956C-34D0-CE4B-9B02-376B54AF0868}" name="OUT2" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{659D80D8-1F98-1540-ADDF-C5872E7A9CAB}" name="HOURS WORKED" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{05B6759B-1542-224D-950F-3B77DA0A7CFE}" name="DAY" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0BEDED94-9A33-0544-9F16-C24D35D05A28}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{2ACB8B5C-38A0-1B45-96A1-0DF249C7A1AE}" name="IN" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{80B6B664-4D1B-A441-A00D-DA66AA640311}" name="OUT" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{88412330-D8E4-E84D-8E58-13DD26E5E2C9}" name="IN2" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{5C6D956C-34D0-CE4B-9B02-376B54AF0868}" name="OUT2" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{659D80D8-1F98-1540-ADDF-C5872E7A9CAB}" name="HOURS WORKED" dataDxfId="0">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1661,7 +1661,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1743,7 +1743,7 @@
         <v>43628</v>
       </c>
       <c r="C4" s="20">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D4" s="20">
         <v>0.72916666666666663</v>
@@ -1752,7 +1752,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>0.24999999999999994</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -1803,20 +1803,24 @@
       <c r="B7" s="18">
         <v>43631</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" s="4">
         <f>SUM(G2:G8)</f>
-        <v>1.0625</v>
+        <v>1.2916666666666665</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1826,13 +1830,17 @@
       <c r="B8" s="18">
         <v>43632</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1842,13 +1850,17 @@
       <c r="B9" s="18">
         <v>43633</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="20">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1858,13 +1870,17 @@
       <c r="B10" s="18">
         <v>43634</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1874,13 +1890,21 @@
       <c r="B11" s="18">
         <v>43635</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="C11" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F11" s="20">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1890,13 +1914,21 @@
       <c r="B12" s="18">
         <v>43636</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="C12" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1906,13 +1938,17 @@
       <c r="B13" s="18">
         <v>43637</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="20">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.75</v>
+      </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1951,7 +1987,7 @@
       </c>
       <c r="J15" s="4">
         <f>SUM(G9:G15)</f>
-        <v>0</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1964,7 +2000,7 @@
       </c>
       <c r="G17" s="6">
         <f>SUM(G2:G15)</f>
-        <v>1.0625</v>
+        <v>2.9166666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/Work Tracking/Time Sheet.xlsx
+++ b/Work Tracking/Time Sheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Summer-2019/scrabble/Work Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF613F53-DCBA-0441-859B-7F5C56D169F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A607E2-3CEB-E947-B551-EF29683FA3D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="1" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
+    <workbookView xWindow="1180" yWindow="2980" windowWidth="28040" windowHeight="16540" activeTab="2" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
   </bookViews>
   <sheets>
     <sheet name="5 27 - 6 9" sheetId="1" r:id="rId1"/>
     <sheet name="June 10th to 23rd" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="June 24th to July 7th " sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -263,7 +264,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="44">
     <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -421,30 +422,30 @@
     <dxf>
       <border>
         <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+          <color rgb="FF000000"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -504,76 +505,74 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -641,30 +640,30 @@
     <dxf>
       <border>
         <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -724,74 +723,76 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -859,30 +860,30 @@
     <dxf>
       <border>
         <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -920,6 +921,224 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -934,16 +1153,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{302CF30A-29A8-504D-BB11-E182EF979F5F}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{302CF30A-29A8-504D-BB11-E182EF979F5F}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="A1:G15" xr:uid="{7909C85F-5AC1-1C41-A0DA-FEFDDD3083B4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AC16E83B-DFE2-A24F-BCA4-3256B6AA2E2E}" name="DAY" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{F1A89DD6-FD0F-B749-9D77-151E6C6CBCFA}" name="DATE" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{20BB48E1-AA0D-3E47-AD77-73131EC31B2F}" name="IN" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{38AEDD78-D8C3-2748-81FB-F61358B2711C}" name="OUT" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{E5EF4C67-3789-FD49-9CB0-10736833C336}" name="IN2" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{6774D340-ED72-604A-9FD6-EB1645472754}" name="OUT2" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{7FF324A6-96B5-3D41-95AC-571DB53028EA}" name="HOURS WORKED" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{AC16E83B-DFE2-A24F-BCA4-3256B6AA2E2E}" name="DAY" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{F1A89DD6-FD0F-B749-9D77-151E6C6CBCFA}" name="DATE" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{20BB48E1-AA0D-3E47-AD77-73131EC31B2F}" name="IN" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{38AEDD78-D8C3-2748-81FB-F61358B2711C}" name="OUT" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{E5EF4C67-3789-FD49-9CB0-10736833C336}" name="IN2" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{6774D340-ED72-604A-9FD6-EB1645472754}" name="OUT2" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{7FF324A6-96B5-3D41-95AC-571DB53028EA}" name="HOURS WORKED" dataDxfId="33">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -952,16 +1171,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD9BBBAD-0E4B-FF47-BBC9-43199C6A56A5}" name="Table143" displayName="Table143" ref="A1:G15" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD9BBBAD-0E4B-FF47-BBC9-43199C6A56A5}" name="Table143" displayName="Table143" ref="A1:G15" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:G15" xr:uid="{BF5537AC-A15A-9049-B514-2CEBE112C09A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9D4C76CD-B24D-4848-BE2C-3A6F250D2AC4}" name="DAY" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{43D19B11-5450-AD40-AADD-65034905CB49}" name="DATE" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{7EAFA47C-1F57-F44B-8C2E-DBAA8AA52FD1}" name="IN" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{A2F973C1-C96E-CF41-A148-CA138690A9E5}" name="OUT" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{6412FA9D-2708-594C-B091-60ABB5838C49}" name="IN2" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{C7C70BB3-5490-754A-B576-09962ABEB833}" name="OUT2" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{C71D6813-9EF5-414C-9561-50ACA8255127}" name="HOURS WORKED" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{9D4C76CD-B24D-4848-BE2C-3A6F250D2AC4}" name="DAY" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{43D19B11-5450-AD40-AADD-65034905CB49}" name="DATE" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{7EAFA47C-1F57-F44B-8C2E-DBAA8AA52FD1}" name="IN" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{A2F973C1-C96E-CF41-A148-CA138690A9E5}" name="OUT" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{6412FA9D-2708-594C-B091-60ABB5838C49}" name="IN2" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{C7C70BB3-5490-754A-B576-09962ABEB833}" name="OUT2" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{C71D6813-9EF5-414C-9561-50ACA8255127}" name="HOURS WORKED" dataDxfId="22">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -970,16 +1189,34 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB05A5D6-AF61-7E49-8E79-F49027947B23}" name="Table14" displayName="Table14" ref="A1:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F08644F1-0DD8-BA4C-AE1D-BD0767F0BADE}" name="Table145" displayName="Table145" ref="A1:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G15" xr:uid="{BF5537AC-A15A-9049-B514-2CEBE112C09A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{05B6759B-1542-224D-950F-3B77DA0A7CFE}" name="DAY" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{0BEDED94-9A33-0544-9F16-C24D35D05A28}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{2ACB8B5C-38A0-1B45-96A1-0DF249C7A1AE}" name="IN" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{80B6B664-4D1B-A441-A00D-DA66AA640311}" name="OUT" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{88412330-D8E4-E84D-8E58-13DD26E5E2C9}" name="IN2" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{5C6D956C-34D0-CE4B-9B02-376B54AF0868}" name="OUT2" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{659D80D8-1F98-1540-ADDF-C5872E7A9CAB}" name="HOURS WORKED" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{D6012E41-DFC3-8745-B8F7-EBEC6A9FCA7E}" name="DAY" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{94CA8E12-A53A-E94F-8CBC-F9A716BA6A20}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AB7038AA-C380-1C4A-9C70-311EF49DCA75}" name="IN" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7E8F0CF7-9725-B540-BF9B-EBCCB961E37F}" name="OUT" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{F8F7DDDE-3F36-8B45-9EAE-B833212BF6B1}" name="IN2" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E68D8CE9-8376-F24A-A795-22CA0E5AF0A3}" name="OUT2" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{0C2D20EA-6480-BE44-A7F6-9E85DEDB90F7}" name="HOURS WORKED" dataDxfId="0">
+      <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AB05A5D6-AF61-7E49-8E79-F49027947B23}" name="Table14" displayName="Table14" ref="A1:G15" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:G15" xr:uid="{BF5537AC-A15A-9049-B514-2CEBE112C09A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{05B6759B-1542-224D-950F-3B77DA0A7CFE}" name="DAY" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{0BEDED94-9A33-0544-9F16-C24D35D05A28}" name="DATE" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{2ACB8B5C-38A0-1B45-96A1-0DF249C7A1AE}" name="IN" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{80B6B664-4D1B-A441-A00D-DA66AA640311}" name="OUT" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{88412330-D8E4-E84D-8E58-13DD26E5E2C9}" name="IN2" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{5C6D956C-34D0-CE4B-9B02-376B54AF0868}" name="OUT2" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{659D80D8-1F98-1540-ADDF-C5872E7A9CAB}" name="HOURS WORKED" dataDxfId="11">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1660,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D794CE9-4AF5-0940-8E0A-FEDB3E22E6BF}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1894,7 +2131,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D11" s="20">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="E11" s="20">
         <v>0.83333333333333337</v>
@@ -1904,7 +2141,7 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>0.33333333333333337</v>
+        <v>0.37499999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1920,15 +2157,11 @@
       <c r="D12" s="20">
         <v>0.75</v>
       </c>
-      <c r="E12" s="20">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F12" s="20">
-        <v>0.95833333333333337</v>
-      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>0.50000000000000011</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1942,13 +2175,13 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="20">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1958,13 +2191,17 @@
       <c r="B14" s="18">
         <v>43638</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="20">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.5</v>
+      </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1987,7 +2224,7 @@
       </c>
       <c r="J15" s="4">
         <f>SUM(G9:G15)</f>
-        <v>1.625</v>
+        <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2000,7 +2237,7 @@
       </c>
       <c r="G17" s="6">
         <f>SUM(G2:G15)</f>
-        <v>2.9166666666666665</v>
+        <v>2.875</v>
       </c>
     </row>
   </sheetData>
@@ -2012,6 +2249,325 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E104A721-2F43-2345-AB0A-02E0AAC309D4}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18">
+        <v>43640</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2:G15" si="0">D2-C2+F2-E2</f>
+        <v>0.25000000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18">
+        <v>43641</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="G3" s="12">
+        <f>D3-C3+F3-E3</f>
+        <v>0.29166666666666674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18">
+        <v>43642</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18">
+        <v>43643</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43644</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18">
+        <v>43645</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM(G2:G8)</f>
+        <v>0.79166666666666696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="18">
+        <v>43646</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>43647</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18">
+        <v>43648</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>43649</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18">
+        <v>43650</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="18">
+        <v>43651</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="18">
+        <v>43652</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18">
+        <v>43653</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4">
+        <f>SUM(G9:G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6">
+        <f>SUM(G2:G15)</f>
+        <v>0.79166666666666696</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EB692-21B1-BA4D-91A7-4364896ECCDF}">
   <dimension ref="A1:J17"/>
   <sheetViews>

--- a/Work Tracking/Time Sheet.xlsx
+++ b/Work Tracking/Time Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Summer-2019/scrabble/Work Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A607E2-3CEB-E947-B551-EF29683FA3D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E722332-2E21-EE47-80B1-28D559EAA19C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="2980" windowWidth="28040" windowHeight="16540" activeTab="2" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="2" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
   </bookViews>
   <sheets>
     <sheet name="5 27 - 6 9" sheetId="1" r:id="rId1"/>
@@ -2252,8 +2252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E104A721-2F43-2345-AB0A-02E0AAC309D4}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2363,13 +2363,17 @@
       <c r="B5" s="18">
         <v>43643</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+      <c r="C5" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25000000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2379,13 +2383,17 @@
       <c r="B6" s="18">
         <v>43644</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+      <c r="C6" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.75</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2408,7 +2416,7 @@
       </c>
       <c r="J7" s="4">
         <f>SUM(G2:G8)</f>
-        <v>0.79166666666666696</v>
+        <v>1.3333333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2434,13 +2442,21 @@
       <c r="B9" s="18">
         <v>43647</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.875</v>
+      </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2466,13 +2482,17 @@
       <c r="B11" s="18">
         <v>43649</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2482,13 +2502,17 @@
       <c r="B12" s="18">
         <v>43650</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2498,13 +2522,17 @@
       <c r="B13" s="18">
         <v>43651</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.875</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2514,13 +2542,17 @@
       <c r="B14" s="18">
         <v>43652</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="14">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2530,20 +2562,24 @@
       <c r="B15" s="18">
         <v>43653</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="4">
         <f>SUM(G9:G15)</f>
-        <v>0</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2556,7 +2592,7 @@
       </c>
       <c r="G17" s="6">
         <f>SUM(G2:G15)</f>
-        <v>0.79166666666666696</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Work Tracking/Time Sheet.xlsx
+++ b/Work Tracking/Time Sheet.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Summer-2019/scrabble/Work Tracking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E722332-2E21-EE47-80B1-28D559EAA19C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87399BFE-949B-2C41-AAD7-506ED9A50E5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="2" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="3" xr2:uid="{90E5CAA6-A1ED-BB4C-A20E-228CFC255461}"/>
   </bookViews>
   <sheets>
     <sheet name="5 27 - 6 9" sheetId="1" r:id="rId1"/>
     <sheet name="June 10th to 23rd" sheetId="3" r:id="rId2"/>
     <sheet name="June 24th to July 7th " sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="July 8th to 21st" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2 (2)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -264,7 +266,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="55">
     <dxf>
       <numFmt numFmtId="25" formatCode="h:mm"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -723,76 +725,74 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -943,74 +943,76 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1078,30 +1080,30 @@
     <dxf>
       <border>
         <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1139,6 +1141,224 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1153,16 +1373,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{302CF30A-29A8-504D-BB11-E182EF979F5F}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{302CF30A-29A8-504D-BB11-E182EF979F5F}" name="Table1" displayName="Table1" ref="A1:G15" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52" totalsRowBorderDxfId="51">
   <autoFilter ref="A1:G15" xr:uid="{7909C85F-5AC1-1C41-A0DA-FEFDDD3083B4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AC16E83B-DFE2-A24F-BCA4-3256B6AA2E2E}" name="DAY" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{F1A89DD6-FD0F-B749-9D77-151E6C6CBCFA}" name="DATE" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{20BB48E1-AA0D-3E47-AD77-73131EC31B2F}" name="IN" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{38AEDD78-D8C3-2748-81FB-F61358B2711C}" name="OUT" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{E5EF4C67-3789-FD49-9CB0-10736833C336}" name="IN2" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{6774D340-ED72-604A-9FD6-EB1645472754}" name="OUT2" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{7FF324A6-96B5-3D41-95AC-571DB53028EA}" name="HOURS WORKED" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{AC16E83B-DFE2-A24F-BCA4-3256B6AA2E2E}" name="DAY" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{F1A89DD6-FD0F-B749-9D77-151E6C6CBCFA}" name="DATE" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{20BB48E1-AA0D-3E47-AD77-73131EC31B2F}" name="IN" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{38AEDD78-D8C3-2748-81FB-F61358B2711C}" name="OUT" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{E5EF4C67-3789-FD49-9CB0-10736833C336}" name="IN2" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{6774D340-ED72-604A-9FD6-EB1645472754}" name="OUT2" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{7FF324A6-96B5-3D41-95AC-571DB53028EA}" name="HOURS WORKED" dataDxfId="44">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1171,16 +1391,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD9BBBAD-0E4B-FF47-BBC9-43199C6A56A5}" name="Table143" displayName="Table143" ref="A1:G15" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD9BBBAD-0E4B-FF47-BBC9-43199C6A56A5}" name="Table143" displayName="Table143" ref="A1:G15" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
   <autoFilter ref="A1:G15" xr:uid="{BF5537AC-A15A-9049-B514-2CEBE112C09A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{9D4C76CD-B24D-4848-BE2C-3A6F250D2AC4}" name="DAY" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{43D19B11-5450-AD40-AADD-65034905CB49}" name="DATE" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{7EAFA47C-1F57-F44B-8C2E-DBAA8AA52FD1}" name="IN" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{A2F973C1-C96E-CF41-A148-CA138690A9E5}" name="OUT" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{6412FA9D-2708-594C-B091-60ABB5838C49}" name="IN2" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{C7C70BB3-5490-754A-B576-09962ABEB833}" name="OUT2" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{C71D6813-9EF5-414C-9561-50ACA8255127}" name="HOURS WORKED" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{9D4C76CD-B24D-4848-BE2C-3A6F250D2AC4}" name="DAY" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{43D19B11-5450-AD40-AADD-65034905CB49}" name="DATE" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{7EAFA47C-1F57-F44B-8C2E-DBAA8AA52FD1}" name="IN" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{A2F973C1-C96E-CF41-A148-CA138690A9E5}" name="OUT" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{6412FA9D-2708-594C-B091-60ABB5838C49}" name="IN2" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{C7C70BB3-5490-754A-B576-09962ABEB833}" name="OUT2" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{C71D6813-9EF5-414C-9561-50ACA8255127}" name="HOURS WORKED" dataDxfId="33">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1189,16 +1409,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F08644F1-0DD8-BA4C-AE1D-BD0767F0BADE}" name="Table145" displayName="Table145" ref="A1:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F08644F1-0DD8-BA4C-AE1D-BD0767F0BADE}" name="Table145" displayName="Table145" ref="A1:G15" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:G15" xr:uid="{BF5537AC-A15A-9049-B514-2CEBE112C09A}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D6012E41-DFC3-8745-B8F7-EBEC6A9FCA7E}" name="DAY" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{94CA8E12-A53A-E94F-8CBC-F9A716BA6A20}" name="DATE" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{AB7038AA-C380-1C4A-9C70-311EF49DCA75}" name="IN" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{7E8F0CF7-9725-B540-BF9B-EBCCB961E37F}" name="OUT" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{F8F7DDDE-3F36-8B45-9EAE-B833212BF6B1}" name="IN2" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E68D8CE9-8376-F24A-A795-22CA0E5AF0A3}" name="OUT2" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{0C2D20EA-6480-BE44-A7F6-9E85DEDB90F7}" name="HOURS WORKED" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{D6012E41-DFC3-8745-B8F7-EBEC6A9FCA7E}" name="DAY" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{94CA8E12-A53A-E94F-8CBC-F9A716BA6A20}" name="DATE" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{AB7038AA-C380-1C4A-9C70-311EF49DCA75}" name="IN" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{7E8F0CF7-9725-B540-BF9B-EBCCB961E37F}" name="OUT" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{F8F7DDDE-3F36-8B45-9EAE-B833212BF6B1}" name="IN2" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{E68D8CE9-8376-F24A-A795-22CA0E5AF0A3}" name="OUT2" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{0C2D20EA-6480-BE44-A7F6-9E85DEDB90F7}" name="HOURS WORKED" dataDxfId="22">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1217,6 +1437,24 @@
     <tableColumn id="5" xr3:uid="{88412330-D8E4-E84D-8E58-13DD26E5E2C9}" name="IN2" dataDxfId="13"/>
     <tableColumn id="6" xr3:uid="{5C6D956C-34D0-CE4B-9B02-376B54AF0868}" name="OUT2" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{659D80D8-1F98-1540-ADDF-C5872E7A9CAB}" name="HOURS WORKED" dataDxfId="11">
+      <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE70DB98-979E-AB49-A8CD-98FE8BD0F598}" name="Table146" displayName="Table146" ref="A1:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G15" xr:uid="{BF5537AC-A15A-9049-B514-2CEBE112C09A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C51A1474-F9F7-A542-BBAF-EC104927BA22}" name="DAY" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1EAE3B48-AC3F-1A4D-9E70-24C2D76FF5EB}" name="DATE" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{DA38AC75-7938-924C-A5B7-2EA329D6BB48}" name="IN" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{000CB6BA-745F-F440-AB4C-FD6AB8DA7427}" name="OUT" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{ADA596AA-F0AA-044C-AE80-BE49132FD2B3}" name="IN2" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{8CD2B17E-4C8C-D44E-B12A-1185D5925AA7}" name="OUT2" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{D387DD68-F8FC-CC40-B865-E095A963272D}" name="HOURS WORKED" dataDxfId="0">
       <calculatedColumnFormula>D2-C2+F2-E2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2252,7 +2490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E104A721-2F43-2345-AB0A-02E0AAC309D4}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" workbookViewId="0">
+    <sheetView zoomScale="149" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2605,6 +2843,309 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266EB692-21B1-BA4D-91A7-4364896ECCDF}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="18">
+        <v>43654</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2:G4" si="0">D2-C2+F2-E2</f>
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18">
+        <v>43655</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12">
+        <f>D3-C3+F3-E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18">
+        <v>43656</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18">
+        <v>43657</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12">
+        <f t="shared" ref="G5:G15" si="1">D5-C5+F5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43658</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="18">
+        <v>43659</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4">
+        <f>SUM(G2:G8)</f>
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="18">
+        <v>43660</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>43661</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18">
+        <v>43662</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18">
+        <v>43663</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18">
+        <v>43664</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="18">
+        <v>43665</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="18">
+        <v>43666</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18">
+        <v>43667</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4">
+        <f>SUM(G9:G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="6">
+        <f>SUM(G2:G15)</f>
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE157A8-94FF-FB44-BBDB-29F9D57601B0}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -2654,7 +3195,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G4" si="0">D2-C2+F2-E2</f>
+        <f t="shared" ref="G2:G15" si="0">D2-C2+F2-E2</f>
         <v>0</v>
       </c>
     </row>
@@ -2703,7 +3244,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="12">
-        <f t="shared" ref="G5:G15" si="1">D5-C5+F5-E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2719,7 +3260,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2735,7 +3276,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" t="s">
@@ -2758,7 +3299,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2774,7 +3315,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2790,7 +3331,7 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2806,7 +3347,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2822,7 +3363,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2838,7 +3379,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2854,7 +3395,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2870,7 +3411,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" t="s">
